--- a/Отчет.xlsx
+++ b/Отчет.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
-  <si>
-    <t>BubbleSort</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
   <si>
     <t>CountingSort</t>
   </si>
@@ -61,6 +58,12 @@
   </si>
   <si>
     <t>Случайные значения одинаковой длины(String) (us)</t>
+  </si>
+  <si>
+    <t>Размер массива 100000</t>
+  </si>
+  <si>
+    <t>Размер массива 1000</t>
   </si>
 </sst>
 </file>
@@ -77,18 +80,77 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -97,11 +159,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -403,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,170 +489,501 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>22.375</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>18.699000000000002</v>
+      </c>
+      <c r="E5" s="7">
+        <v>32.290999999999997</v>
+      </c>
+      <c r="F5" s="7">
+        <v>31.704999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>232.392</v>
+      </c>
+      <c r="C6" s="6">
+        <v>272.74</v>
+      </c>
+      <c r="D6" s="6">
+        <v>370.83199999999999</v>
+      </c>
+      <c r="E6" s="6">
+        <v>428.28699999999998</v>
+      </c>
+      <c r="F6" s="6">
+        <v>560.34799999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>142.31899999999999</v>
+      </c>
+      <c r="C7" s="6">
+        <v>194.096</v>
+      </c>
+      <c r="D7" s="6">
+        <v>248.059</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7">
+        <v>3988.817</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
+        <v>191.2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>219.702</v>
+      </c>
+      <c r="D8" s="6">
+        <v>241.97499999999999</v>
+      </c>
+      <c r="E8" s="6">
+        <v>280.87</v>
+      </c>
+      <c r="F8" s="6">
+        <v>440.88400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <v>118.352</v>
+      </c>
+      <c r="C9" s="6">
+        <v>152.08000000000001</v>
+      </c>
+      <c r="D9" s="6">
+        <v>141.179</v>
+      </c>
+      <c r="E9" s="6">
+        <v>254.166</v>
+      </c>
+      <c r="F9" s="6">
+        <v>430.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6">
+        <v>135.97399999999999</v>
+      </c>
+      <c r="C10" s="6">
+        <v>164.20500000000001</v>
+      </c>
+      <c r="D10" s="6">
+        <v>142.13999999999999</v>
+      </c>
+      <c r="E10" s="6">
+        <v>247.13</v>
+      </c>
+      <c r="F10" s="6">
+        <v>388.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6">
+        <v>262.988</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D16" s="6">
+        <v>178.56200000000001</v>
+      </c>
+      <c r="E16" s="7">
+        <v>344.33699999999999</v>
+      </c>
+      <c r="F16" s="7">
+        <v>419.38900000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2939.576</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3009.7750000000001</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2732.4029999999998</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5759.3760000000002</v>
+      </c>
+      <c r="F17" s="6">
+        <v>6186.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2213.864</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2076.607</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2015.2840000000001</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="6">
+        <v>77249.134999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2111.98</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2555.69</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2270.625</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4352.8720000000003</v>
+      </c>
+      <c r="F19" s="6">
+        <v>4337.1019999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1640.09</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1572.2529999999999</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1213.3389999999999</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4411.7219999999998</v>
+      </c>
+      <c r="F20" s="6">
+        <v>3912.8519999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1738.9880000000001</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1962.4459999999999</v>
+      </c>
+      <c r="D21" s="6">
+        <v>942.452</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4232.9859999999999</v>
+      </c>
+      <c r="F21" s="6">
+        <v>3664.53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F28" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
-        <v>183111.89499999999</v>
-      </c>
-      <c r="C5">
-        <v>172507.36600000001</v>
-      </c>
-      <c r="D5">
-        <v>175447.435</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B29" s="6">
+        <v>4435.7709999999997</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="6">
+        <v>3020.6950000000002</v>
+      </c>
+      <c r="E29" s="7">
+        <v>6557.1850000000004</v>
+      </c>
+      <c r="F29" s="7">
+        <v>16158.049000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>201.84299999999999</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>174.28800000000001</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B30" s="6">
+        <v>45279.807999999997</v>
+      </c>
+      <c r="C30" s="6">
+        <v>44084.811000000002</v>
+      </c>
+      <c r="D30" s="6">
+        <v>32845.932999999997</v>
+      </c>
+      <c r="E30" s="6">
+        <v>5759.3760000000002</v>
+      </c>
+      <c r="F30" s="6">
+        <v>149735.424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>1324.915</v>
-      </c>
-      <c r="C7">
-        <v>1473.6130000000001</v>
-      </c>
-      <c r="D7">
-        <v>1188.415</v>
-      </c>
-      <c r="E7">
-        <v>2520.317</v>
-      </c>
-      <c r="F7">
-        <v>2907.71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B31" s="6">
+        <v>36167.574999999997</v>
+      </c>
+      <c r="C31" s="6">
+        <v>41205.207000000002</v>
+      </c>
+      <c r="D31" s="6">
+        <v>37139.538</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="6">
+        <v>4703932.2350000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>1873.18</v>
-      </c>
-      <c r="C8">
-        <v>2309.7950000000001</v>
-      </c>
-      <c r="D8">
-        <v>2005.0150000000001</v>
-      </c>
-      <c r="E8">
-        <v>38582.095000000001</v>
-      </c>
-      <c r="F8">
-        <v>72448.832999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B32" s="6">
+        <v>28724.589</v>
+      </c>
+      <c r="C32" s="6">
+        <v>27893.813999999998</v>
+      </c>
+      <c r="D32" s="6">
+        <v>22559.474999999999</v>
+      </c>
+      <c r="E32" s="6">
+        <v>4352.8720000000003</v>
+      </c>
+      <c r="F32" s="6">
+        <v>104450.539</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>2140.81</v>
-      </c>
-      <c r="C9">
-        <v>2531.0300000000002</v>
-      </c>
-      <c r="D9">
-        <v>2581.3380000000002</v>
-      </c>
-      <c r="E9">
-        <v>5073.7719999999999</v>
-      </c>
-      <c r="F9">
-        <v>4107.63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B33" s="6">
+        <v>20032.401999999998</v>
+      </c>
+      <c r="C33" s="6">
+        <v>20063.587</v>
+      </c>
+      <c r="D33" s="6">
+        <v>12357.276</v>
+      </c>
+      <c r="E33" s="6">
+        <v>4411.7219999999998</v>
+      </c>
+      <c r="F33" s="6">
+        <v>74427.42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10">
-        <v>2722.62</v>
-      </c>
-      <c r="C10">
-        <v>3143.259</v>
-      </c>
-      <c r="D10">
-        <v>2951.4749999999999</v>
-      </c>
-      <c r="E10">
-        <v>7767.6890000000003</v>
-      </c>
-      <c r="F10">
-        <v>7308.9459999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>2177.7840000000001</v>
-      </c>
-      <c r="C11">
-        <v>2080.2460000000001</v>
-      </c>
-      <c r="D11">
-        <v>1609.4090000000001</v>
-      </c>
-      <c r="E11">
-        <v>4071.123</v>
-      </c>
-      <c r="F11">
-        <v>4216.8729999999996</v>
+      <c r="B34" s="6">
+        <v>22867.047999999999</v>
+      </c>
+      <c r="C34" s="6">
+        <v>22848.817999999999</v>
+      </c>
+      <c r="D34" s="6">
+        <v>7808.5519999999997</v>
+      </c>
+      <c r="E34" s="6">
+        <v>4232.9859999999999</v>
+      </c>
+      <c r="F34" s="6">
+        <v>68498.898000000001</v>
       </c>
     </row>
   </sheetData>
